--- a/trend_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
+++ b/trend_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.224845898984445</v>
+        <v>0.775154101015555</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.789752575928469</v>
+        <v>0.210247424071531</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.156004744425813</v>
+        <v>0.843995255574187</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.402871133777912</v>
+        <v>0.5971288662220881</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3098,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.830329522004854</v>
+        <v>0.0031858572998988</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0444444444444444</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.444444444444444</v>
+        <v>0.78740157480315</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>9</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
       <c r="K30" t="n">
-        <v>0.0062414559125085</v>
+        <v>0.423743175614195</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0036094926074594</v>
+        <v>0.0290995879120879</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0199850488139153</v>
+        <v>0.9985671860383331</v>
       </c>
       <c r="N30" t="n">
-        <v>0.624145591250854</v>
+        <v>4.70825750682439</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0.412041377727461</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0479041916167665</v>
       </c>
       <c r="H31" t="n">
-        <v>0.447257383966245</v>
+        <v>0.479041916167665</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>0.031</v>
+        <v>1.1</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0034143099723105</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0041487786448273</v>
+        <v>-0.0245243101491294</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0027442244239762</v>
+        <v>0.0126701473456011</v>
       </c>
       <c r="N31" t="n">
-        <v>-11.0139031364856</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.999935951988839</v>
+        <v>0.015539603677357</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0127118644067797</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.843023255813954</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>230</v>
+        <v>10.53</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.73797782292062</v>
+        <v>-0.0440884512369107</v>
       </c>
       <c r="L32" t="n">
-        <v>-14.9578220405893</v>
+        <v>-0.076521198764989</v>
       </c>
       <c r="M32" t="n">
-        <v>-5.69702350872781</v>
+        <v>-0.0108361043715226</v>
       </c>
       <c r="N32" t="n">
-        <v>-4.23390340126983</v>
+        <v>-0.418693743940273</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,11 +3371,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.08555045492533569</v>
+        <v>0.995131019901468</v>
       </c>
       <c r="G33" t="n">
-        <v>0.115555555555556</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.893333333333333</v>
+        <v>0.365168539325843</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0747179646637796</v>
+        <v>0.022</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0012406045618757</v>
+        <v>-0.0007826785714285</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0001147579875987</v>
+        <v>-0.001337912087912</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0031340143464472</v>
+        <v>-0.0002930405751513</v>
       </c>
       <c r="N33" t="n">
-        <v>1.66038323910221</v>
+        <v>-3.55762987012987</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.270882406539149</v>
+        <v>0.891257265984891</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0319634703196347</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H34" t="n">
-        <v>0.794520547945205</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.509</v>
+        <v>170</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0022828124999999</v>
+        <v>-3.52841961073914</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0034667264297228</v>
+        <v>-8.891972035640441</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0084407022191712</v>
+        <v>1.19829749586079</v>
       </c>
       <c r="N34" t="n">
-        <v>0.448489685658151</v>
+        <v>-2.07554094749361</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3553,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.104082395118959</v>
+        <v>0.981190433359232</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0042194092827004</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="H35" t="n">
-        <v>0.864978902953586</v>
+        <v>0.898203592814371</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>0.721</v>
+        <v>0.101207575933881</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0067018348623853</v>
+        <v>-0.0034955417431992</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0020017565794264</v>
+        <v>-0.0069266542253255</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0133702082547537</v>
+        <v>-0.0004890876918001</v>
       </c>
       <c r="N35" t="n">
-        <v>0.929519398389088</v>
+        <v>-3.45383407412394</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3644,14 +3644,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3659,31 +3659,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.954273479510136</v>
+        <v>0.854791388681245</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.0764331210191083</v>
       </c>
       <c r="H36" t="n">
-        <v>0.886075949367089</v>
+        <v>0.388535031847134</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>4.17</v>
+        <v>0.017</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0400517819067926</v>
+        <v>-0.0002790297937356</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0799588825842146</v>
+        <v>-0.0008460545301363</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0019044088138829</v>
+        <v>0.0001295832603811</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.960474386254019</v>
+        <v>-1.64135172785692</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3735,11 +3735,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -3750,31 +3750,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.831955016771501</v>
+        <v>0.238274372368222</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0311526479750779</v>
+        <v>0.03125</v>
       </c>
       <c r="H37" t="n">
-        <v>0.46417445482866</v>
+        <v>0.90625</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.08</v>
+        <v>0.5385</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0041647662485746</v>
+        <v>0.0061633184862757</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0028594644106918</v>
+        <v>-0.005799965573189</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0127186085982755</v>
+        <v>0.0165833061853178</v>
       </c>
       <c r="N37" t="n">
-        <v>0.385626504497656</v>
+        <v>1.14453453784137</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3826,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3841,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0.75478332524903</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.430232558139535</v>
+        <v>0.625730994152047</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.052</v>
+        <v>7.81</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0038338528617941</v>
+        <v>0.0077459748028689</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0043510817482717</v>
+        <v>-0.0073708950880611</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0033739343504772</v>
+        <v>0.0199028192830906</v>
       </c>
       <c r="N38" t="n">
-        <v>-7.37279396498872</v>
+        <v>0.0991802151455688</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,11 +3903,7 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3917,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3932,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.729467350971855</v>
+        <v>0.597428462216652</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0783132530120482</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H39" t="n">
-        <v>0.873493975903614</v>
+        <v>0.921348314606742</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0809118423631932</v>
+        <v>0.7995</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0003241914777641</v>
+        <v>-0.0024319850356573</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0011956362327592</v>
+        <v>-0.0156840858564057</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0005358988574739</v>
+        <v>0.0095271836828963</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.400672470550031</v>
+        <v>-0.304188247111614</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3965,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3996,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4008,11 +4004,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -4023,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.87985109480273</v>
+        <v>0.841862557476069</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0214723926380368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.631901840490798</v>
+        <v>0.696629213483146</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.521</v>
+        <v>1.073</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0023777841441432</v>
+        <v>-0.0074719143638316</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0057096163749073</v>
+        <v>-0.0254931237442105</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0009975481452814</v>
+        <v>0.0050042832085125</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.456388511351873</v>
+        <v>-0.696357349844518</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4087,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4099,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4114,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7349220838598119</v>
+        <v>0.9847929519776289</v>
       </c>
       <c r="G41" t="n">
-        <v>0.002906976744186</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.811046511627907</v>
+        <v>0.601123595505618</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7335</v>
+        <v>0.0545</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0015429362522263</v>
+        <v>-0.0013279821023735</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.005643051267348</v>
+        <v>-0.0027042210945562</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0026678611716643</v>
+        <v>-0.0003296168503613</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.210352590623899</v>
+        <v>-2.43666440802477</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4147,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4194,7 +4190,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4205,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.977655964152066</v>
+        <v>0.896616594349622</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7317784256559769</v>
+        <v>0.938202247191011</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.18</v>
+        <v>3.835</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0329063317481766</v>
+        <v>-0.039489326327546</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0545584417701368</v>
+        <v>-0.09760380146286179</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0082551616966794</v>
+        <v>0.0122939311246298</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.787232816942025</v>
+        <v>-1.02970863957095</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4238,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4281,14 +4277,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4296,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>0.830329522004854</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0444444444444444</v>
       </c>
       <c r="H43" t="n">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.379</v>
-      </c>
       <c r="K43" t="n">
-        <v>0.0011307017703943</v>
+        <v>0.0062414559125085</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.104739028353831</v>
+        <v>-0.0036094926074594</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0505395860239002</v>
+        <v>0.0199850488139153</v>
       </c>
       <c r="N43" t="n">
-        <v>0.298338197993222</v>
+        <v>0.624145591250854</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4329,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4358,7 +4354,11 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4368,11 +4368,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.231216363225238</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.447257383966245</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>94.17</v>
+        <v>0.031</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.9319556484146</v>
+        <v>-0.0034143099723105</v>
       </c>
       <c r="L44" t="n">
-        <v>-15.8757687555824</v>
+        <v>-0.0041487786448273</v>
       </c>
       <c r="M44" t="n">
-        <v>4.67901776533981</v>
+        <v>-0.0027442244239762</v>
       </c>
       <c r="N44" t="n">
-        <v>-3.1134710081922</v>
+        <v>-11.0139031364856</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4445,7 +4445,11 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4455,11 +4459,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4470,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5</v>
+        <v>0.999935951988839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.0127118644067797</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>5.784</v>
+        <v>230</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.106485828755569</v>
+        <v>-9.73797782292062</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.17141990495943</v>
+        <v>-14.9578220405893</v>
       </c>
       <c r="M45" t="n">
-        <v>1.21043309884895</v>
+        <v>-5.69702350872781</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.84104129937014</v>
+        <v>-4.23390340126983</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4503,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4532,7 +4536,11 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4542,11 +4550,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -4557,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.141565435331173</v>
+        <v>0.08555045492533569</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.115555555555556</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.893333333333333</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3995</v>
+        <v>0.0747179646637796</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0106778422273782</v>
+        <v>0.0012406045618757</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0209106475322223</v>
+        <v>-0.0001147579875987</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0068382281965394</v>
+        <v>0.0031340143464472</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.67280155879304</v>
+        <v>1.66038323910221</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4590,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4619,7 +4627,11 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4644,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.20948086257967</v>
+        <v>0.270882406539149</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>0.794520547945205</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>95.08499999999999</v>
+        <v>0.509</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.847447795823666</v>
+        <v>0.0022828124999999</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.46248520999243</v>
+        <v>-0.0034667264297228</v>
       </c>
       <c r="M47" t="n">
-        <v>0.937976231861515</v>
+        <v>0.0084407022191712</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.891252874610786</v>
+        <v>0.448489685658151</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4706,7 +4718,11 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4716,14 +4732,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4731,31 +4747,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.570986171506239</v>
+        <v>0.104082395118959</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.0042194092827004</v>
       </c>
       <c r="H48" t="n">
+        <v>0.864978902953586</v>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>5.842</v>
+        <v>0.721</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0333764849223272</v>
+        <v>0.0067018348623853</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.196776625902152</v>
+        <v>-0.0020017565794264</v>
       </c>
       <c r="M48" t="n">
-        <v>0.380482724757594</v>
+        <v>0.0133702082547537</v>
       </c>
       <c r="N48" t="n">
-        <v>0.571319495418131</v>
+        <v>0.929519398389088</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4764,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4793,7 +4809,11 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4803,14 +4823,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4818,31 +4838,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.827467056265655</v>
+        <v>0.954273479510136</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.75</v>
+        <v>0.886075949367089</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>95.08499999999999</v>
+        <v>4.17</v>
       </c>
       <c r="K49" t="n">
-        <v>0.504136094636511</v>
+        <v>-0.0400517819067926</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.328284750127729</v>
+        <v>-0.0799588825842146</v>
       </c>
       <c r="M49" t="n">
-        <v>1.31555963919448</v>
+        <v>-0.0019044088138829</v>
       </c>
       <c r="N49" t="n">
-        <v>0.5301951881332601</v>
+        <v>-0.960474386254019</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4851,7 +4871,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4880,7 +4900,1253 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>30</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.831955016771501</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0311526479750779</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.46417445482866</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0041647662485746</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0028594644106918</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0127186085982755</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.385626504497656</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.430232558139535</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0038338528617941</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0043510817482717</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.0033739343504772</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-7.37279396498872</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>30</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.729467350971855</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0783132530120482</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.873493975903614</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0809118423631932</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.0003241914777641</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.0011956362327592</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0005358988574739</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.400672470550031</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>30</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.87985109480273</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0214723926380368</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.631901840490798</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.0023777841441432</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.0057096163749073</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0009975481452814</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.456388511351873</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>30</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.7349220838598119</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.002906976744186</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.811046511627907</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7335</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.0015429362522263</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.005643051267348</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0026678611716643</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.210352590623899</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>30</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.977655964152066</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.7317784256559769</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0329063317481766</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.0545584417701368</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.0082551616966794</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.787232816942025</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0011307017703943</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.104739028353831</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0505395860239002</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.298338197993222</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>94.17</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-2.9319556484146</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-15.8757687555824</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4.67901776533981</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-3.1134710081922</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.784</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.106485828755569</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.17141990495943</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.21043309884895</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.84104129937014</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.141565435331173</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.3995</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.0106778422273782</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.0209106475322223</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0068382281965394</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-2.67280155879304</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.20948086257967</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>95.08499999999999</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.847447795823666</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-2.46248520999243</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.937976231861515</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.891252874610786</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5.842</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0333764849223272</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.196776625902152</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.380482724757594</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.571319495418131</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>15</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.292405952161355</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>98</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.431761574074074</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.21196471867933</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.755258276976964</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.440573034769463</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>20</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.827467056265655</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>95.08499999999999</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.504136094636511</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.328284750127729</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.31555963919448</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.5301951881332601</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
+++ b/trend_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5809951168101271</v>
+        <v>0.906830738215362</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="H2" t="n">
-        <v>0.861111111111111</v>
+        <v>0.885714285714286</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>26.25</v>
+        <v>18.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.637222905143637</v>
+        <v>-3.02086466165414</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.18386969881067</v>
+        <v>-9.64007593681116</v>
       </c>
       <c r="M2" t="n">
-        <v>4.682946525508</v>
+        <v>1.26563379567243</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.42751582911862</v>
+        <v>-16.3289981711034</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9239536837592101</v>
+        <v>0.330363968978523</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H3" t="n">
-        <v>0.684210526315789</v>
+        <v>0.725490196078431</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08998950094491499</v>
+        <v>-0.0162093195266272</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0130029048699551</v>
+        <v>-0.201202407114405</v>
       </c>
       <c r="M3" t="n">
-        <v>0.199408553230209</v>
+        <v>0.0776838865458197</v>
       </c>
       <c r="N3" t="n">
-        <v>11.2486876181144</v>
+        <v>-2.0261649408284</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.775154101015555</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.947368421052632</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.54</v>
       </c>
       <c r="K4" t="n">
-        <v>0.051323972080551</v>
+        <v>-0.0050171703296702</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.07812586331100529</v>
+        <v>-0.11920479718516</v>
       </c>
       <c r="M4" t="n">
-        <v>0.14351940125614</v>
+        <v>0.0478281389444297</v>
       </c>
       <c r="N4" t="n">
-        <v>0.486944706646594</v>
+        <v>-0.0476012365243854</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.657617449866553</v>
+        <v>0.300174448599158</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.576271186440678</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0004787024901703</v>
+        <v>0.0004276932084309</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.00279145384176</v>
+        <v>-0.001215090710433</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0015811688311688</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.17592040986537</v>
+        <v>2.25101688647849</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.968469941698899</v>
+        <v>0.363564872852573</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.758620689655172</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>165</v>
+        <v>131.5</v>
       </c>
       <c r="K6" t="n">
-        <v>-38.3129370629371</v>
+        <v>4.28864970645793</v>
       </c>
       <c r="L6" t="n">
-        <v>-81.4913481968064</v>
+        <v>-17.5733581355892</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.14738225159423</v>
+        <v>29.3934944594335</v>
       </c>
       <c r="N6" t="n">
-        <v>-23.2199618563255</v>
+        <v>3.26133057525318</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1020,39 +1020,39 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8871342215653319</v>
+        <v>0.272936057634203</v>
       </c>
       <c r="G7" t="n">
-        <v>0.192307692307692</v>
+        <v>0.226415094339623</v>
       </c>
       <c r="H7" t="n">
-        <v>0.865384615384615</v>
+        <v>0.8301886792452829</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0801018455385481</v>
+        <v>0.06967121812879019</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0075225805968448</v>
+        <v>0.0009068638848439</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.027889723491929</v>
+        <v>-0.0040021691001692</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0010485632089854</v>
+        <v>0.007530062572825</v>
       </c>
       <c r="N7" t="n">
-        <v>-9.391270009159349</v>
+        <v>1.30163345668449</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1111,39 +1111,39 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.939769147509809</v>
+        <v>0.330416471654861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.101694915254237</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H8" t="n">
-        <v>0.542372881355932</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0019445430346051</v>
+        <v>0.0004167873601053</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0036834957457078</v>
+        <v>-0.0010089928093984</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N8" t="n">
-        <v>-17.6776639509559</v>
+        <v>4.16787360105332</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.413853687854465</v>
+        <v>0.012256999582561</v>
       </c>
       <c r="G9" t="n">
         <v>0.0847457627118644</v>
       </c>
       <c r="H9" t="n">
-        <v>0.898305084745763</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.539</v>
+        <v>0.538</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0056325003249707</v>
+        <v>0.0366490609390609</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0417954538722555</v>
+        <v>0.0144846452797739</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0578495873344952</v>
+        <v>0.0783302083274377</v>
       </c>
       <c r="N9" t="n">
-        <v>1.04499078385357</v>
+        <v>6.81209311134962</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.210247424071531</v>
+        <v>0.199429297046883</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.859649122807018</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.89</v>
+        <v>7.855</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0319662880732515</v>
+        <v>-0.0367925824175825</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0934480379250693</v>
+        <v>-0.122651087681472</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0318544782888521</v>
+        <v>0.0457287204202461</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.405149405237662</v>
+        <v>-0.468396975398886</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.332091660746537</v>
+        <v>0.096383983600694</v>
       </c>
       <c r="G11" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H11" t="n">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8</v>
+        <v>0.723</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0134173469387755</v>
+        <v>0.0351606771799629</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0516689351331234</v>
+        <v>-0.0134977543223972</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0743424219076482</v>
+        <v>0.0727979776385783</v>
       </c>
       <c r="N11" t="n">
-        <v>1.67716836734694</v>
+        <v>4.86316420193124</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.969924255277657</v>
+        <v>0.0538301133877422</v>
       </c>
       <c r="G12" t="n">
-        <v>0.186440677966102</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.576271186440678</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>0.99</v>
       </c>
       <c r="K12" t="n">
-        <v>-2.93879310344828</v>
+        <v>0.0350241699090383</v>
       </c>
       <c r="L12" t="n">
-        <v>-10.0110820799194</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.076622047151266</v>
       </c>
       <c r="N12" t="n">
-        <v>-29.3879310344828</v>
+        <v>3.5377949403069</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.695159012786058</v>
+        <v>0.437621866365498</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.864406779661017</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>0.039</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0212449557021925</v>
+        <v>0.0005166195190947</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.11433927016282</v>
+        <v>-0.0044064742280658</v>
       </c>
       <c r="M13" t="n">
-        <v>0.037040472473301</v>
+        <v>0.0041973493657096</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.0427842021339</v>
+        <v>1.32466543357632</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.93461656825543</v>
+        <v>0.359108064766993</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.813559322033898</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.043</v>
+        <v>5.4</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0050729166666666</v>
+        <v>0.168533764622474</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0146111711905202</v>
+        <v>-0.277759002137561</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0004187435310231</v>
+        <v>0.876753337463403</v>
       </c>
       <c r="N14" t="n">
-        <v>-11.797480620155</v>
+        <v>3.12099564115693</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.996210203984209</v>
+        <v>0.0804965841705526</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0123456790123457</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9830508474576271</v>
+        <v>0.790123456790123</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>5.13</v>
+        <v>10.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.17401785714286</v>
+        <v>0.5484202026134199</v>
       </c>
       <c r="L15" t="n">
-        <v>-6.484533892745</v>
+        <v>-0.0265338741335071</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.189646780578728</v>
+        <v>1.84984472263762</v>
       </c>
       <c r="N15" t="n">
-        <v>-22.8853383458647</v>
+        <v>5.22304954869923</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.176009538132159</v>
+        <v>0.028747973173969</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0280373831775701</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7906976744186049</v>
+        <v>0.626168224299065</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>13.25</v>
+        <v>0.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0827585253775002</v>
+        <v>-0.0498526439329725</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.243527153653527</v>
+        <v>-0.100343406593407</v>
       </c>
       <c r="M16" t="n">
-        <v>1.15649042119376</v>
+        <v>-0.0090530719663407</v>
       </c>
       <c r="N16" t="n">
-        <v>0.624592644358492</v>
+        <v>-6.23158049162157</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.032414186242908</v>
+        <v>0.940325136823584</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0265486725663717</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.601769911504425</v>
+        <v>0.860869565217391</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9</v>
+        <v>10.37</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0474350649350649</v>
+        <v>0.0324555707450445</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.100343406593407</v>
+        <v>-0.0036500891128242</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0066640204047045</v>
+        <v>0.0799115611048359</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.27056277056277</v>
+        <v>0.312975609884711</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.843995255574187</v>
+        <v>0.0176320243975703</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.878260869565217</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.37</v>
+        <v>0.018</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0381939839422165</v>
+        <v>0.0007580421999308</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0275486314672448</v>
+        <v>0.0001602907396485</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0845594206553492</v>
+        <v>0.001337912087912</v>
       </c>
       <c r="N18" t="n">
-        <v>0.368312284881548</v>
+        <v>4.21134555517122</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0374555319186485</v>
+        <v>0.728478805759159</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H19" t="n">
-        <v>0.445378151260504</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.019</v>
+        <v>170</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007986516034985</v>
+        <v>-2.74624060150376</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-15.0206631757353</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0014639815950549</v>
+        <v>5.01960257232559</v>
       </c>
       <c r="N19" t="n">
-        <v>4.20342949209759</v>
+        <v>-1.61543564794339</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,32 +2203,32 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.477737811804796</v>
+        <v>0.378281397917199</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0254237288135593</v>
+        <v>0.201834862385321</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.844036697247706</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>155</v>
+        <v>0.0745683800987219</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-8.59886581388985</v>
+        <v>-0.0024312013062528</v>
       </c>
       <c r="M20" t="n">
-        <v>8.070908064168931</v>
+        <v>0.0041997466419167</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.861576835111779</v>
+        <v>0.999836253046466</v>
       </c>
       <c r="G21" t="n">
-        <v>0.181818181818182</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H21" t="n">
-        <v>0.863636363636364</v>
+        <v>0.453781512605042</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08801433491316921</v>
+        <v>0.014</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0023708877398779</v>
+        <v>-0.0017476076555023</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0086270637941947</v>
+        <v>-0.0027786748891265</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0008179979276838</v>
+        <v>-0.0008885849064318</v>
       </c>
       <c r="N21" t="n">
-        <v>-2.69375181010791</v>
+        <v>-12.4829118250171</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999853821944246</v>
+        <v>0.812810543560879</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0504201680672269</v>
+        <v>0.0420168067226891</v>
       </c>
       <c r="H22" t="n">
-        <v>0.495798319327731</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.018</v>
+        <v>0.596</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0020871428571428</v>
+        <v>-0.0085595060790273</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0034307529136251</v>
+        <v>-0.0305267885545877</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.001003434065934</v>
+        <v>0.010476480888946</v>
       </c>
       <c r="N22" t="n">
-        <v>-11.5952380952381</v>
+        <v>-1.43615873809184</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.458383907943403</v>
+        <v>0.680541942542065</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0420168067226891</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5737</v>
+        <v>7.81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0008396551724137</v>
+        <v>0.0059783872918387</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0195884886513891</v>
+        <v>-0.0112982270662479</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0199704097237603</v>
+        <v>0.0238775913741476</v>
       </c>
       <c r="N23" t="n">
-        <v>0.146357882589121</v>
+        <v>0.076547852648384</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5971288662220881</v>
+        <v>0.632894223508388</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H24" t="n">
-        <v>0.68695652173913</v>
+        <v>0.92436974789916</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.81</v>
+        <v>0.82</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0053226548691077</v>
+        <v>-0.0077522448979591</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0156586496711266</v>
+        <v>-0.0262884471833079</v>
       </c>
       <c r="M24" t="n">
-        <v>0.024858622137649</v>
+        <v>0.0136698082131934</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0681517908976662</v>
+        <v>-0.945395719263312</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.541616092056597</v>
+        <v>0.941886583463924</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.907563025210084</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.823</v>
+        <v>1.11</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0019972658920027</v>
+        <v>-0.030103021978022</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0234588778346474</v>
+        <v>-0.06460204081632651</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0236526831848799</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.242681153341766</v>
+        <v>-2.71198396198396</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,32 +2745,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.691747542808956</v>
+        <v>0.572793947218879</v>
       </c>
       <c r="G26" t="n">
-        <v>0.109243697478992</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.478991596638655</v>
+        <v>0.663865546218487</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>0.045</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.499897804418584</v>
+        <v>-0.0011632165605095</v>
       </c>
       <c r="M26" t="n">
-        <v>0.393646361920194</v>
+        <v>0.0010228542834463</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.924448347977086</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.781512605042017</v>
+        <v>0.949579831932773</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>5.48</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0267651739452258</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0616509028536801</v>
+        <v>-0.160429930793902</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0037002797058282</v>
+        <v>0.136025807246909</v>
       </c>
       <c r="N27" t="n">
-        <v>-2.43319763138416</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.580105434255094</v>
+        <v>0.009011582833119</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="H28" t="n">
-        <v>0.672268907563025</v>
+        <v>0.774436090225564</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.045</v>
+        <v>9.5</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0001999178981937</v>
+        <v>0.220314688805603</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0018910941881702</v>
+        <v>0.0145118831607249</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0014144554885903</v>
+        <v>0.753886268763475</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.444261995986134</v>
+        <v>2.3191019874274</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.743102398031445</v>
+        <v>0.083967113728493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0432098765432099</v>
       </c>
       <c r="H29" t="n">
-        <v>0.949579831932773</v>
+        <v>0.512345679012346</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>4.14</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0328667840375587</v>
+        <v>-0.0166173794358508</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.17160834955768</v>
+        <v>-0.0496983780255223</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0498345070926081</v>
+        <v>1.89200982651562e-05</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.793883672404799</v>
+        <v>-1.66173794358508</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0031858572998988</v>
+        <v>0.065192959761337</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.78740157480315</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9</v>
+        <v>10.51</v>
       </c>
       <c r="K30" t="n">
-        <v>0.423743175614195</v>
+        <v>-0.0307911825017088</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0290995879120879</v>
+        <v>-0.0569984577714509</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9985671860383331</v>
+        <v>0.0022956463664262</v>
       </c>
       <c r="N30" t="n">
-        <v>4.70825750682439</v>
+        <v>-0.292970337789807</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.412041377727461</v>
+        <v>0.96196536678552</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0479041916167665</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.479041916167665</v>
+        <v>0.342696629213483</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.1</v>
+        <v>0.02</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.0004436015333088</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0245243101491294</v>
+        <v>-0.0008572141385123</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0126701473456011</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-2.21800766654405</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.015539603677357</v>
+        <v>0.698535475351481</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H32" t="n">
-        <v>0.843023255813954</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>10.53</v>
+        <v>170</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0440884512369107</v>
+        <v>-1.41470140582295</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.076521198764989</v>
+        <v>-6.79002354578485</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0108361043715226</v>
+        <v>3.56524189400884</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.418693743940273</v>
+        <v>-0.832177297542914</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.995131019901468</v>
+        <v>0.998370151318334</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="H33" t="n">
-        <v>0.365168539325843</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>0.022</v>
+        <v>0.0995886681792781</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0007826785714285</v>
+        <v>-0.0052562154971131</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.001337912087912</v>
+        <v>-0.0086687315358059</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0002930405751513</v>
+        <v>-0.0020342413130119</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.55762987012987</v>
+        <v>-5.27792528327724</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.891257265984891</v>
+        <v>0.966575433131144</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H34" t="n">
-        <v>0.677966101694915</v>
+        <v>0.36094674556213</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>170</v>
+        <v>0.014</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.52841961073914</v>
+        <v>-0.0004577067669172</v>
       </c>
       <c r="L34" t="n">
-        <v>-8.891972035640441</v>
+        <v>-0.0009370613973293</v>
       </c>
       <c r="M34" t="n">
-        <v>1.19829749586079</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.07554094749361</v>
+        <v>-3.26933404940924</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3553,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.981190433359232</v>
+        <v>0.3534828826638</v>
       </c>
       <c r="G35" t="n">
-        <v>0.125748502994012</v>
+        <v>0.029585798816568</v>
       </c>
       <c r="H35" t="n">
-        <v>0.898203592814371</v>
+        <v>0.905325443786982</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.101207575933881</v>
+        <v>0.539</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0034955417431992</v>
+        <v>0.0034460951723128</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0069266542253255</v>
+        <v>-0.0077829750825664</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0004890876918001</v>
+        <v>0.0143768123122676</v>
       </c>
       <c r="N35" t="n">
-        <v>-3.45383407412394</v>
+        <v>0.639349753675852</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,14 +3644,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3659,31 +3659,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.854791388681245</v>
+        <v>0.340472912033787</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0764331210191083</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.388535031847134</v>
+        <v>0.6220930232558139</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.017</v>
+        <v>7.82</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0002790297937356</v>
+        <v>-0.0029318120354128</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0008460545301363</v>
+        <v>-0.0149635693538465</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001295832603811</v>
+        <v>0.0099387755102038</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.64135172785692</v>
+        <v>-0.037491202498886</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.238274372368222</v>
+        <v>0.709313840530218</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03125</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H37" t="n">
-        <v>0.90625</v>
+        <v>0.9269662921348319</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5385</v>
+        <v>0.7885</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0061633184862757</v>
+        <v>-0.0048261591806519</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.005799965573189</v>
+        <v>-0.0186957515999198</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0165833061853178</v>
+        <v>0.0076489753787308</v>
       </c>
       <c r="N37" t="n">
-        <v>1.14453453784137</v>
+        <v>-0.612068380551925</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.75478332524903</v>
+        <v>0.871337645803748</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.625730994152047</v>
+        <v>0.7247191011235951</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.81</v>
+        <v>1.0775</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0077459748028689</v>
+        <v>-0.009330047010660101</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0073708950880611</v>
+        <v>-0.0292862858717509</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0199028192830906</v>
+        <v>0.0032316412443209</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0991802151455688</v>
+        <v>-0.865897634400009</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.597428462216652</v>
+        <v>0.865254610440665</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0056179775280898</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.921348314606742</v>
+        <v>0.5730337078651681</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7995</v>
+        <v>0.051</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0024319850356573</v>
+        <v>-0.0004995556092425</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0156840858564057</v>
+        <v>-0.0013497183698596</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0095271836828963</v>
+        <v>0.0002129573562087</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.304188247111614</v>
+        <v>-0.979520802436357</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.841862557476069</v>
+        <v>0.56341261667459</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.696629213483146</v>
+        <v>0.938202247191011</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.073</v>
+        <v>4.155</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0074719143638316</v>
+        <v>-0.0085129367444042</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0254931237442105</v>
+        <v>-0.0690828331211969</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0050042832085125</v>
+        <v>0.06555874069939541</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.696357349844518</v>
+        <v>-0.20488415750672</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9847929519776289</v>
+        <v>0.818370657505473</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="H41" t="n">
-        <v>0.601123595505618</v>
+        <v>0.438356164383562</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0545</v>
+        <v>0.9</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0013279821023735</v>
+        <v>0.0062329467701602</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0027042210945562</v>
+        <v>-0.0036308466876161</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0003296168503613</v>
+        <v>0.0187099652746257</v>
       </c>
       <c r="N41" t="n">
-        <v>-2.43666440802477</v>
+        <v>0.692549641128911</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.896616594349622</v>
-      </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.938202247191011</v>
+        <v>0.421940928270042</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.835</v>
+        <v>0.028</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.039489326327546</v>
+        <v>-0.0029363463489703</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.09760380146286179</v>
+        <v>-0.0036343283582089</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0122939311246298</v>
+        <v>-0.0022761051165287</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.02970863957095</v>
+        <v>-10.4869512463226</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,14 +4277,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.830329522004854</v>
+        <v>0.997045167191968</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0444444444444444</v>
+        <v>0.0127118644067797</v>
       </c>
       <c r="H43" t="n">
-        <v>0.444444444444444</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I43" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0062414559125085</v>
+        <v>-6.70994244932279</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0036094926074594</v>
+        <v>-10.8956054964266</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0199850488139153</v>
+        <v>-2.60378845916902</v>
       </c>
       <c r="N43" t="n">
-        <v>0.624145591250854</v>
+        <v>-3.06390066179123</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.592085007663629</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.116071428571429</v>
       </c>
       <c r="H44" t="n">
-        <v>0.447257383966245</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>0.031</v>
+        <v>0.08801433491316921</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0034143099723105</v>
+        <v>-0.0001062676747244</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0041487786448273</v>
+        <v>-0.0016139453237648</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0027442244239762</v>
+        <v>0.0013870188132055</v>
       </c>
       <c r="N44" t="n">
-        <v>-11.0139031364856</v>
+        <v>-0.120739053279529</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4459,14 +4459,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4474,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.999935951988839</v>
+        <v>0.157172010597271</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0127118644067797</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.817351598173516</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>230</v>
+        <v>0.5104</v>
       </c>
       <c r="K45" t="n">
-        <v>-9.73797782292062</v>
+        <v>0.0036407556270096</v>
       </c>
       <c r="L45" t="n">
-        <v>-14.9578220405893</v>
+        <v>-0.0021710921668196</v>
       </c>
       <c r="M45" t="n">
-        <v>-5.69702350872781</v>
+        <v>0.0097065365248814</v>
       </c>
       <c r="N45" t="n">
-        <v>-4.23390340126983</v>
+        <v>0.713314190244837</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4550,14 +4550,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4565,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.08555045492533569</v>
+        <v>0.182523650475902</v>
       </c>
       <c r="G46" t="n">
-        <v>0.115555555555556</v>
+        <v>0.0042194092827004</v>
       </c>
       <c r="H46" t="n">
-        <v>0.893333333333333</v>
+        <v>0.890295358649789</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0747179646637796</v>
+        <v>0.723</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0012406045618757</v>
+        <v>0.0043029452054794</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0001147579875987</v>
+        <v>-0.0034903149797173</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0031340143464472</v>
+        <v>0.0116808645094461</v>
       </c>
       <c r="N46" t="n">
-        <v>1.66038323910221</v>
+        <v>0.595151480702552</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4656,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.270882406539149</v>
+        <v>0.9042853461613261</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0319634703196347</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.794520547945205</v>
+        <v>0.89873417721519</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.509</v>
+        <v>4.5</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0022828124999999</v>
+        <v>-0.0399908759124088</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0034667264297228</v>
+        <v>-0.0854824054691173</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0084407022191712</v>
+        <v>0.009826830084839601</v>
       </c>
       <c r="N47" t="n">
-        <v>0.448489685658151</v>
+        <v>-0.888686131386861</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4732,11 +4732,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -4747,31 +4747,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.104082395118959</v>
+        <v>0.678047442221144</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0042194092827004</v>
+        <v>0.0305810397553517</v>
       </c>
       <c r="H48" t="n">
-        <v>0.864978902953586</v>
+        <v>0.46177370030581</v>
       </c>
       <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
         <v>1</v>
       </c>
-      <c r="J48" t="n">
-        <v>0.721</v>
-      </c>
       <c r="K48" t="n">
-        <v>0.0067018348623853</v>
+        <v>0.001247510994263</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0020017565794264</v>
+        <v>-0.0046571418036186</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0133702082547537</v>
+        <v>0.008518402052744499</v>
       </c>
       <c r="N48" t="n">
-        <v>0.929519398389088</v>
+        <v>0.124751099426308</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4823,46 +4823,46 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
         <v>1</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0.954273479510136</v>
-      </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.886075949367089</v>
+        <v>0.415730337078652</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.17</v>
+        <v>0.051</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0400517819067926</v>
+        <v>-0.0036996749319298</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0799588825842146</v>
+        <v>-0.0041818508765835</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0019044088138829</v>
+        <v>-0.0032547679352155</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.960474386254019</v>
+        <v>-7.25426457241147</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4914,14 +4914,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>30</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4929,31 +4929,31 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.831955016771501</v>
+        <v>0.8194942296655749</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0311526479750779</v>
+        <v>0.0816326530612245</v>
       </c>
       <c r="H50" t="n">
-        <v>0.46417445482866</v>
+        <v>0.871720116618076</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>1.08</v>
+        <v>0.0798500607640862</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0041647662485746</v>
+        <v>-0.00047440009455</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0028594644106918</v>
+        <v>-0.001246850195502</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0127186085982755</v>
+        <v>0.0003438928938549</v>
       </c>
       <c r="N50" t="n">
-        <v>0.385626504497656</v>
+        <v>-0.594113629984103</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5005,14 +5005,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>30</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.887810704396559</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.0207100591715976</v>
       </c>
       <c r="H51" t="n">
-        <v>0.430232558139535</v>
+        <v>0.642011834319527</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>0.052</v>
+        <v>0.5225</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0038338528617941</v>
+        <v>-0.0023777841441432</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.0043510817482717</v>
+        <v>-0.0054172557983565</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.0033739343504772</v>
+        <v>0.0007451574356078</v>
       </c>
       <c r="N51" t="n">
-        <v>-7.37279396498872</v>
+        <v>-0.455078305099188</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5096,14 +5096,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>30</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -5111,31 +5111,31 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.729467350971855</v>
+        <v>0.78229029016534</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0783132530120482</v>
+        <v>0.0028089887640449</v>
       </c>
       <c r="H52" t="n">
-        <v>0.873493975903614</v>
+        <v>0.820224719101124</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0809118423631932</v>
+        <v>0.7335</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0003241914777641</v>
+        <v>-0.0019228096825666</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.0011956362327592</v>
+        <v>-0.0059444439792838</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0005358988574739</v>
+        <v>0.0019424073345811</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.400672470550031</v>
+        <v>-0.262141742681206</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5202,31 +5202,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.87985109480273</v>
+        <v>0.9173877615967651</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0214723926380368</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.631901840490798</v>
+        <v>0.740845070422535</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.521</v>
+        <v>4.5</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0023777841441432</v>
+        <v>-0.0244512628055584</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0057096163749073</v>
+        <v>-0.0472541751927368</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0009975481452814</v>
+        <v>0.0039930294707273</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.456388511351873</v>
+        <v>-0.543361395679075</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -5278,46 +5278,46 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.7349220838598119</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.002906976744186</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.811046511627907</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7335</v>
+        <v>0.379</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0015429362522263</v>
+        <v>-0.0205094686013525</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.005643051267348</v>
+        <v>-0.104739028353831</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0026678611716643</v>
+        <v>0.0294691443608179</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.210352590623899</v>
+        <v>-5.4114692879558</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -5355,11 +5355,7 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5369,46 +5365,46 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0.977655964152066</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.7317784256559769</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.18</v>
+        <v>94.12</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0329063317481766</v>
+        <v>-2.21710169731294</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0545584417701368</v>
+        <v>-15.8757687555824</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0082551616966794</v>
+        <v>4.37840114596415</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.787232816942025</v>
+        <v>-2.35561166310343</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5417,7 +5413,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -5446,11 +5442,7 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5460,7 +5452,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5475,7 +5467,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5487,19 +5479,19 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.379</v>
+        <v>5.784</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0011307017703943</v>
+        <v>-0.403116579213245</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.104739028353831</v>
+        <v>-1.17141990495943</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0505395860239002</v>
+        <v>0.0009713402033459</v>
       </c>
       <c r="N56" t="n">
-        <v>0.298338197993222</v>
+        <v>-6.96951208874905</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5508,7 +5500,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -5547,11 +5539,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -5562,7 +5554,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.231216363225238</v>
+        <v>0.07620314197837499</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -5574,19 +5566,19 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>94.17</v>
+        <v>0.3965</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.9319556484146</v>
+        <v>-0.0106778422273782</v>
       </c>
       <c r="L57" t="n">
-        <v>-15.8757687555824</v>
+        <v>-0.0211116041988768</v>
       </c>
       <c r="M57" t="n">
-        <v>4.67901776533981</v>
+        <v>0.0022987958379055</v>
       </c>
       <c r="N57" t="n">
-        <v>-3.1134710081922</v>
+        <v>-2.69302452140686</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5595,7 +5587,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q57" t="n">
@@ -5634,11 +5626,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -5649,31 +5641,31 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.5</v>
+        <v>0.464222020750296</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>5.784</v>
+        <v>94.145</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.106485828755569</v>
+        <v>-0.0097348081023448</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.17141990495943</v>
+        <v>-1.73293848376368</v>
       </c>
       <c r="M58" t="n">
-        <v>1.21043309884895</v>
+        <v>1.11714512348248</v>
       </c>
       <c r="N58" t="n">
-        <v>-1.84104129937014</v>
+        <v>-0.0103402284798395</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5721,7 +5713,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -5736,7 +5728,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.141565435331173</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -5748,19 +5740,19 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3995</v>
+        <v>5.842</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.0106778422273782</v>
+        <v>-0.0410164733178654</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.0209106475322223</v>
+        <v>-0.196776625902152</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0068382281965394</v>
+        <v>0.274042099731225</v>
       </c>
       <c r="N59" t="n">
-        <v>-2.67280155879304</v>
+        <v>-0.7020964278991</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5769,7 +5761,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q59" t="n">
@@ -5808,11 +5800,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -5823,31 +5815,31 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.20948086257967</v>
+        <v>0.413332984835078</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>95.08499999999999</v>
+        <v>0.381</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.847447795823666</v>
+        <v>-0.0003416744621141</v>
       </c>
       <c r="L60" t="n">
-        <v>-2.46248520999243</v>
+        <v>-0.0099494422245859</v>
       </c>
       <c r="M60" t="n">
-        <v>0.937976231861515</v>
+        <v>0.0076083666240607</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.891252874610786</v>
+        <v>-0.08967833651289391</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5856,7 +5848,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q60" t="n">
@@ -5895,11 +5887,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -5910,31 +5902,31 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.570986171506239</v>
+        <v>0.061808351879491</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>5.842</v>
+        <v>98</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0333764849223272</v>
+        <v>-0.72676023890785</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.196776625902152</v>
+        <v>-1.40593917043446</v>
       </c>
       <c r="M61" t="n">
-        <v>0.380482724757594</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0.571319495418131</v>
+        <v>-0.741592080518214</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5943,7 +5935,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q61" t="n">
@@ -5982,7 +5974,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -5997,31 +5989,31 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.292405952161355</v>
+        <v>0.809462759195353</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>98</v>
+        <v>5.1795</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.431761574074074</v>
+        <v>0.0765482243744956</v>
       </c>
       <c r="L62" t="n">
-        <v>-1.21196471867933</v>
+        <v>-0.0705936450276619</v>
       </c>
       <c r="M62" t="n">
-        <v>0.755258276976964</v>
+        <v>0.219335322490793</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.440573034769463</v>
+        <v>1.47790760448876</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6030,7 +6022,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q62" t="n">
@@ -6084,7 +6076,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.827467056265655</v>
+        <v>0.731915255819551</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -6099,16 +6091,16 @@
         <v>95.08499999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>0.504136094636511</v>
+        <v>0.433902523433991</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.328284750127729</v>
+        <v>-0.486862722121589</v>
       </c>
       <c r="M63" t="n">
-        <v>1.31555963919448</v>
+        <v>1.13930572544816</v>
       </c>
       <c r="N63" t="n">
-        <v>0.5301951881332601</v>
+        <v>0.456331202012926</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>

--- a/trend_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
+++ b/trend_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -139,58 +139,55 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
+    <t>Likely improving</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
+    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -578,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,31 +669,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.906830738215362</v>
+        <v>0.980361700195449</v>
       </c>
       <c r="G2">
-        <v>0.0285714285714286</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H2">
-        <v>0.885714285714286</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>18.5</v>
+        <v>10.25</v>
       </c>
       <c r="K2">
-        <v>-3.02086466165414</v>
+        <v>-2.93682669789227</v>
       </c>
       <c r="L2">
-        <v>-9.64007593681116</v>
+        <v>-6.67415026830932</v>
       </c>
       <c r="M2">
-        <v>1.26563379567243</v>
+        <v>-0.19337525589552</v>
       </c>
       <c r="N2">
-        <v>-16.3289981711034</v>
+        <v>-28.6519677843148</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -711,19 +708,19 @@
         <v>5538597</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" t="s">
         <v>62</v>
-      </c>
-      <c r="W2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -743,31 +740,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.330363968978523</v>
+        <v>0.071054794560571</v>
       </c>
       <c r="G3">
-        <v>0.0196078431372549</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H3">
-        <v>0.725490196078431</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K3">
-        <v>-0.0162093195266272</v>
+        <v>-0.134662377783813</v>
       </c>
       <c r="L3">
-        <v>-0.201202407114405</v>
+        <v>-0.383806661181484</v>
       </c>
       <c r="M3">
-        <v>0.0776838865458197</v>
+        <v>0.008442894632883601</v>
       </c>
       <c r="N3">
-        <v>-2.0261649408284</v>
+        <v>-19.2374825405447</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -782,19 +779,19 @@
         <v>5538597</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -814,31 +811,31 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.386126230518574</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.8947368421052631</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.54</v>
+        <v>10.57</v>
       </c>
       <c r="K4">
-        <v>-0.0050171703296702</v>
+        <v>-0.0351201923076918</v>
       </c>
       <c r="L4">
-        <v>-0.11920479718516</v>
+        <v>-0.133150100858486</v>
       </c>
       <c r="M4">
-        <v>0.0478281389444297</v>
+        <v>0.0200686813186811</v>
       </c>
       <c r="N4">
-        <v>-0.0476012365243854</v>
+        <v>-0.332262935739752</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -853,19 +850,19 @@
         <v>5538597</v>
       </c>
       <c r="S4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -882,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.300174448599158</v>
+        <v>0.455692746843922</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -897,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="K5">
-        <v>0.0004276932084309</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.001215090710433</v>
+        <v>-0.0017926492557286</v>
       </c>
       <c r="M5">
-        <v>0.0020068681318681</v>
+        <v>0.0014908163265306</v>
       </c>
       <c r="N5">
-        <v>2.25101688647849</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
@@ -924,19 +921,19 @@
         <v>5538597</v>
       </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -956,37 +953,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.363564872852573</v>
+        <v>0.234350904880173</v>
       </c>
       <c r="G6">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.810344827586207</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>131.5</v>
+        <v>114</v>
       </c>
       <c r="K6">
-        <v>4.28864970645793</v>
+        <v>6.95714285714286</v>
       </c>
       <c r="L6">
-        <v>-17.5733581355892</v>
+        <v>-11.105788436087</v>
       </c>
       <c r="M6">
-        <v>29.3934944594335</v>
+        <v>31.339713501735</v>
       </c>
       <c r="N6">
-        <v>3.26133057525318</v>
+        <v>6.10275689223058</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1814385</v>
@@ -995,19 +992,19 @@
         <v>5538597</v>
       </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1024,40 +1021,40 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.272936057634203</v>
+        <v>0.0981583900617745</v>
       </c>
       <c r="G7">
-        <v>0.226415094339623</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="H7">
-        <v>0.8301886792452829</v>
+        <v>0.836363636363636</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.06967121812879019</v>
+        <v>0.0766808860630304</v>
       </c>
       <c r="K7">
-        <v>0.0009068638848439</v>
+        <v>0.0070827743408547</v>
       </c>
       <c r="L7">
-        <v>-0.0040021691001692</v>
+        <v>-5.61746232833756E-05</v>
       </c>
       <c r="M7">
-        <v>0.007530062572825</v>
+        <v>0.0158637779977061</v>
       </c>
       <c r="N7">
-        <v>1.30163345668449</v>
+        <v>9.23668818202335</v>
       </c>
       <c r="O7" t="s">
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1814385</v>
@@ -1066,19 +1063,19 @@
         <v>5538597</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1095,40 +1092,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.330416471654861</v>
+        <v>0.930175300694785</v>
       </c>
       <c r="G8">
-        <v>0.11864406779661</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="H8">
-        <v>0.440677966101695</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K8">
-        <v>0.0004167873601053</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="L8">
-        <v>-0.0010089928093984</v>
+        <v>-0.0020068681318681</v>
       </c>
       <c r="M8">
-        <v>0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>4.16787360105332</v>
+        <v>-11.1492673992674</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1814385</v>
@@ -1137,19 +1134,19 @@
         <v>5538597</v>
       </c>
       <c r="S8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1166,34 +1163,34 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>0.012256999582561</v>
+        <v>0.192617927201847</v>
       </c>
       <c r="G9">
-        <v>0.0847457627118644</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H9">
-        <v>0.88135593220339</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.538</v>
+        <v>0.523</v>
       </c>
       <c r="K9">
-        <v>0.0366490609390609</v>
+        <v>0.0114228505372017</v>
       </c>
       <c r="L9">
-        <v>0.0144846452797739</v>
+        <v>-0.0533796701505462</v>
       </c>
       <c r="M9">
-        <v>0.0783302083274377</v>
+        <v>0.0366072498791726</v>
       </c>
       <c r="N9">
-        <v>6.81209311134962</v>
+        <v>2.18410144114754</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
@@ -1208,19 +1205,19 @@
         <v>5538597</v>
       </c>
       <c r="S9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1240,37 +1237,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.199429297046883</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.821428571428571</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.855</v>
+        <v>7.88</v>
       </c>
       <c r="K10">
-        <v>-0.0367925824175825</v>
+        <v>-0.0033024412296563</v>
       </c>
       <c r="L10">
-        <v>-0.122651087681472</v>
+        <v>-0.0615913871536245</v>
       </c>
       <c r="M10">
-        <v>0.0457287204202461</v>
+        <v>0.0563551490740724</v>
       </c>
       <c r="N10">
-        <v>-0.468396975398886</v>
+        <v>-0.0419091526606136</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1814385</v>
@@ -1279,16 +1276,16 @@
         <v>5538597</v>
       </c>
       <c r="S10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1305,40 +1302,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.096383983600694</v>
+        <v>0.234663468277801</v>
       </c>
       <c r="G11">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.966101694915254</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0.723</v>
       </c>
       <c r="K11">
-        <v>0.0351606771799629</v>
+        <v>0.0086566572361897</v>
       </c>
       <c r="L11">
-        <v>-0.0134977543223972</v>
+        <v>-0.0529064171744207</v>
       </c>
       <c r="M11">
-        <v>0.0727979776385783</v>
+        <v>0.0478597164216561</v>
       </c>
       <c r="N11">
-        <v>4.86316420193124</v>
+        <v>1.1973246523084</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1814385</v>
@@ -1347,19 +1344,19 @@
         <v>5538597</v>
       </c>
       <c r="S11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1379,37 +1376,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0538301133877422</v>
+        <v>0.442467978937887</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.847457627118644</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K12">
-        <v>0.0350241699090383</v>
+        <v>0.0067111396667848</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.04508283635621</v>
       </c>
       <c r="M12">
-        <v>0.076622047151266</v>
+        <v>0.0568855681818236</v>
       </c>
       <c r="N12">
-        <v>3.5377949403069</v>
+        <v>0.713951028381365</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q12">
         <v>1814385</v>
@@ -1418,19 +1415,19 @@
         <v>5538597</v>
       </c>
       <c r="S12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1450,37 +1447,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.437621866365498</v>
+        <v>0.678842983363582</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.813559322033898</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="K13">
-        <v>0.0005166195190947</v>
+        <v>-0.0008794141252006</v>
       </c>
       <c r="L13">
-        <v>-0.0044064742280658</v>
+        <v>-0.0042769320843091</v>
       </c>
       <c r="M13">
-        <v>0.0041973493657096</v>
+        <v>0.0022338420530002</v>
       </c>
       <c r="N13">
-        <v>1.32466543357632</v>
+        <v>-2.37679493297471</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1814385</v>
@@ -1489,19 +1486,19 @@
         <v>5538597</v>
       </c>
       <c r="S13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1521,37 +1518,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.359108064766993</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.9830508474576271</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.4</v>
+        <v>3.29</v>
       </c>
       <c r="K14">
-        <v>0.168533764622474</v>
+        <v>0.187802607192947</v>
       </c>
       <c r="L14">
-        <v>-0.277759002137561</v>
+        <v>-0.0923432421378662</v>
       </c>
       <c r="M14">
-        <v>0.876753337463403</v>
+        <v>0.792299518482961</v>
       </c>
       <c r="N14">
-        <v>3.12099564115693</v>
+        <v>5.70828593291633</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1814385</v>
@@ -1560,19 +1557,19 @@
         <v>5538597</v>
       </c>
       <c r="S14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1592,37 +1589,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0804965841705526</v>
+        <v>0.567776396388791</v>
       </c>
       <c r="G15">
-        <v>0.0123456790123457</v>
+        <v>0.0253164556962025</v>
       </c>
       <c r="H15">
-        <v>0.790123456790123</v>
+        <v>0.79746835443038</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>0.5484202026134199</v>
+        <v>-0.0070240384615384</v>
       </c>
       <c r="L15">
-        <v>-0.0265338741335071</v>
+        <v>-1.12939359097306</v>
       </c>
       <c r="M15">
-        <v>1.84984472263762</v>
+        <v>0.6678516800591709</v>
       </c>
       <c r="N15">
-        <v>5.22304954869923</v>
+        <v>-0.07024038461538459</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1814385</v>
@@ -1631,19 +1628,19 @@
         <v>5538597</v>
       </c>
       <c r="S15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
+        <v>61</v>
+      </c>
+      <c r="W15" t="s">
         <v>62</v>
-      </c>
-      <c r="W15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1663,37 +1660,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.028747973173969</v>
+        <v>0.031082137633639</v>
       </c>
       <c r="G16">
-        <v>0.0280373831775701</v>
+        <v>0.0194174757281553</v>
       </c>
       <c r="H16">
-        <v>0.626168224299065</v>
+        <v>0.640776699029126</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="K16">
-        <v>-0.0498526439329725</v>
+        <v>-0.0405694634313055</v>
       </c>
       <c r="L16">
-        <v>-0.100343406593407</v>
+        <v>-0.08490835852060941</v>
       </c>
       <c r="M16">
-        <v>-0.0090530719663407</v>
+        <v>-0.0024885805924113</v>
       </c>
       <c r="N16">
-        <v>-6.23158049162157</v>
+        <v>-5.96609756342728</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q16">
         <v>1814385</v>
@@ -1702,19 +1699,19 @@
         <v>5538597</v>
       </c>
       <c r="S16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1734,13 +1731,13 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.940325136823584</v>
+        <v>0.947811656700122</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.860869565217391</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1749,22 +1746,22 @@
         <v>10.37</v>
       </c>
       <c r="K17">
-        <v>0.0324555707450445</v>
+        <v>0.0303981496444731</v>
       </c>
       <c r="L17">
-        <v>-0.0036500891128242</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0799115611048359</v>
+        <v>0.0677334066093046</v>
       </c>
       <c r="N17">
-        <v>0.312975609884711</v>
+        <v>0.293135483553261</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q17">
         <v>1814385</v>
@@ -1773,19 +1770,19 @@
         <v>5538597</v>
       </c>
       <c r="S17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1799,13 +1796,13 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.0176320243975703</v>
+        <v>0.932252736526677</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1817,25 +1814,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="K18">
-        <v>0.0007580421999308</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="L18">
-        <v>0.0001602907396485</v>
+        <v>-0.0011703116013124</v>
       </c>
       <c r="M18">
-        <v>0.001337912087912</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>4.21134555517122</v>
+        <v>-2.61546723952739</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1814385</v>
@@ -1844,19 +1841,19 @@
         <v>5538597</v>
       </c>
       <c r="S18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1870,43 +1867,43 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.728478805759159</v>
+        <v>0.714058115388903</v>
       </c>
       <c r="G19">
         <v>0.0254237288135593</v>
       </c>
       <c r="H19">
-        <v>0.669491525423729</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K19">
-        <v>-2.74624060150376</v>
+        <v>-2.72020988490183</v>
       </c>
       <c r="L19">
-        <v>-15.0206631757353</v>
+        <v>-13.1274984044772</v>
       </c>
       <c r="M19">
-        <v>5.01960257232559</v>
+        <v>5.57610795164976</v>
       </c>
       <c r="N19">
-        <v>-1.61543564794339</v>
+        <v>-1.64861205145565</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q19">
         <v>1814385</v>
@@ -1915,19 +1912,19 @@
         <v>5538597</v>
       </c>
       <c r="S19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1944,31 +1941,31 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20">
-        <v>0.378281397917199</v>
+        <v>0.363293278203967</v>
       </c>
       <c r="G20">
-        <v>0.201834862385321</v>
+        <v>0.190909090909091</v>
       </c>
       <c r="H20">
-        <v>0.844036697247706</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="I20">
         <v>5</v>
       </c>
       <c r="J20">
-        <v>0.0745683800987219</v>
+        <v>0.0810833062381735</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>-0.0024312013062528</v>
+        <v>-0.0029161882946291</v>
       </c>
       <c r="M20">
-        <v>0.0041997466419167</v>
+        <v>0.0047727318866097</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1977,7 +1974,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1814385</v>
@@ -1986,19 +1983,19 @@
         <v>5538597</v>
       </c>
       <c r="S20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2018,31 +2015,31 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.999836253046466</v>
+        <v>0.999999957945068</v>
       </c>
       <c r="G21">
-        <v>0.0588235294117647</v>
+        <v>0.092436974789916</v>
       </c>
       <c r="H21">
-        <v>0.453781512605042</v>
+        <v>0.445378151260504</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K21">
-        <v>-0.0017476076555023</v>
+        <v>-0.0024363535297387</v>
       </c>
       <c r="L21">
-        <v>-0.0027786748891265</v>
+        <v>-0.0033453149724608</v>
       </c>
       <c r="M21">
-        <v>-0.0008885849064318</v>
+        <v>-0.0016429527464129</v>
       </c>
       <c r="N21">
-        <v>-12.4829118250171</v>
+        <v>-18.7411809979903</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
@@ -2057,19 +2054,19 @@
         <v>5538597</v>
       </c>
       <c r="S21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2089,37 +2086,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.812810543560879</v>
+        <v>0.997972907745191</v>
       </c>
       <c r="G22">
         <v>0.0420168067226891</v>
       </c>
       <c r="H22">
-        <v>0.9411764705882349</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.596</v>
+        <v>0.599</v>
       </c>
       <c r="K22">
-        <v>-0.0085595060790273</v>
+        <v>-0.0301635029354207</v>
       </c>
       <c r="L22">
-        <v>-0.0305267885545877</v>
+        <v>-0.0485663706635813</v>
       </c>
       <c r="M22">
-        <v>0.010476480888946</v>
+        <v>-0.011861341057864</v>
       </c>
       <c r="N22">
-        <v>-1.43615873809184</v>
+        <v>-5.03564322795004</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q22">
         <v>1814385</v>
@@ -2128,19 +2125,19 @@
         <v>5538597</v>
       </c>
       <c r="S22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2160,31 +2157,31 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.680541942542065</v>
+        <v>0.801520889514991</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.684210526315789</v>
+        <v>0.669565217391304</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.81</v>
+        <v>7.84</v>
       </c>
       <c r="K23">
-        <v>0.0059783872918387</v>
+        <v>0.009987701553204701</v>
       </c>
       <c r="L23">
-        <v>-0.0112982270662479</v>
+        <v>-0.008159244723297199</v>
       </c>
       <c r="M23">
-        <v>0.0238775913741476</v>
+        <v>0.0270767854963029</v>
       </c>
       <c r="N23">
-        <v>0.076547852648384</v>
+        <v>0.127394152464346</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
@@ -2199,16 +2196,16 @@
         <v>5538597</v>
       </c>
       <c r="S23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2228,37 +2225,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.632894223508388</v>
+        <v>0.981696479235863</v>
       </c>
       <c r="G24">
         <v>0.008403361344537799</v>
       </c>
       <c r="H24">
-        <v>0.92436974789916</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.82</v>
+        <v>0.823</v>
       </c>
       <c r="K24">
-        <v>-0.0077522448979591</v>
+        <v>-0.0258901308615049</v>
       </c>
       <c r="L24">
-        <v>-0.0262884471833079</v>
+        <v>-0.0476794109412873</v>
       </c>
       <c r="M24">
-        <v>0.0136698082131934</v>
+        <v>-0.008404270469424701</v>
       </c>
       <c r="N24">
-        <v>-0.945395719263312</v>
+        <v>-3.14582391998845</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q24">
         <v>1814385</v>
@@ -2267,19 +2264,19 @@
         <v>5538597</v>
       </c>
       <c r="S24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2299,13 +2296,13 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.941886583463924</v>
+        <v>0.999159919190322</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.764705882352941</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2314,22 +2311,22 @@
         <v>1.11</v>
       </c>
       <c r="K25">
-        <v>-0.030103021978022</v>
+        <v>-0.0473181017612524</v>
       </c>
       <c r="L25">
-        <v>-0.06460204081632651</v>
+        <v>-0.0791366844883469</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-0.0220666997757052</v>
       </c>
       <c r="N25">
-        <v>-2.71198396198396</v>
+        <v>-4.26289205056328</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q25">
         <v>1814385</v>
@@ -2338,19 +2335,19 @@
         <v>5538597</v>
       </c>
       <c r="S25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2367,40 +2364,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>0.572793947218879</v>
+        <v>0.958243859481244</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.663865546218487</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.0011632165605095</v>
       </c>
       <c r="L26">
-        <v>-0.0011632165605095</v>
+        <v>-0.0026758241758241</v>
       </c>
       <c r="M26">
-        <v>0.0010228542834463</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-2.70515479188269</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1814385</v>
@@ -2409,19 +2406,19 @@
         <v>5538597</v>
       </c>
       <c r="S26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2438,40 +2435,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.40708175585751</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.949579831932773</v>
+        <v>0.957983193277311</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>5.48</v>
+        <v>4.17</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.0166704701049748</v>
       </c>
       <c r="L27">
-        <v>-0.160429930793902</v>
+        <v>-0.0780584743471089</v>
       </c>
       <c r="M27">
-        <v>0.136025807246909</v>
+        <v>0.132928397382935</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.399771465347118</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q27">
         <v>1814385</v>
@@ -2480,19 +2477,19 @@
         <v>5538597</v>
       </c>
       <c r="S27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2512,37 +2509,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.009011582833119</v>
+        <v>0.119834386858414</v>
       </c>
       <c r="G28">
-        <v>0.0075187969924812</v>
+        <v>0.0152671755725191</v>
       </c>
       <c r="H28">
-        <v>0.774436090225564</v>
+        <v>0.770992366412214</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K28">
-        <v>0.220314688805603</v>
+        <v>0.0309758503401361</v>
       </c>
       <c r="L28">
-        <v>0.0145118831607249</v>
+        <v>-0.0070133329272967</v>
       </c>
       <c r="M28">
-        <v>0.753886268763475</v>
+        <v>0.453239324009653</v>
       </c>
       <c r="N28">
-        <v>2.3191019874274</v>
+        <v>0.364421768707483</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q28">
         <v>1814385</v>
@@ -2551,19 +2548,19 @@
         <v>5538597</v>
       </c>
       <c r="S28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
+        <v>61</v>
+      </c>
+      <c r="W28" t="s">
         <v>62</v>
-      </c>
-      <c r="W28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2583,13 +2580,13 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.083967113728493</v>
+        <v>0.022051622921606</v>
       </c>
       <c r="G29">
-        <v>0.0432098765432099</v>
+        <v>0.0448717948717949</v>
       </c>
       <c r="H29">
-        <v>0.512345679012346</v>
+        <v>0.532051282051282</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -2598,22 +2595,22 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>-0.0166173794358508</v>
+        <v>-0.0251851442453978</v>
       </c>
       <c r="L29">
-        <v>-0.0496983780255223</v>
+        <v>-0.061973377237387</v>
       </c>
       <c r="M29">
-        <v>1.89200982651562E-05</v>
+        <v>-0.0028596109359585</v>
       </c>
       <c r="N29">
-        <v>-1.66173794358508</v>
+        <v>-2.51851442453978</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q29">
         <v>1814385</v>
@@ -2622,19 +2619,19 @@
         <v>5538597</v>
       </c>
       <c r="S29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2654,37 +2651,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.065192959761337</v>
+        <v>0.15422349520492</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.833333333333333</v>
+        <v>0.816091954022989</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.51</v>
+        <v>10.475</v>
       </c>
       <c r="K30">
-        <v>-0.0307911825017088</v>
+        <v>-0.0200686813186809</v>
       </c>
       <c r="L30">
-        <v>-0.0569984577714509</v>
+        <v>-0.0404526899312328</v>
       </c>
       <c r="M30">
-        <v>0.0022956463664262</v>
+        <v>0.0114446998745526</v>
       </c>
       <c r="N30">
-        <v>-0.292970337789807</v>
+        <v>-0.19158645650292</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q30">
         <v>1814385</v>
@@ -2693,19 +2690,19 @@
         <v>5538597</v>
       </c>
       <c r="S30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2725,37 +2722,37 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.96196536678552</v>
+        <v>0.862357840611908</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.342696629213483</v>
+        <v>0.320224719101124</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="K31">
-        <v>-0.0004436015333088</v>
+        <v>-0.0002107414786692</v>
       </c>
       <c r="L31">
-        <v>-0.0008572141385123</v>
+        <v>-0.0005825358851674</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>9.967995093791711E-05</v>
       </c>
       <c r="N31">
-        <v>-2.21800766654405</v>
+        <v>-1.10916567720641</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>1814385</v>
@@ -2764,19 +2761,19 @@
         <v>5538597</v>
       </c>
       <c r="S31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2796,37 +2793,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.698535475351481</v>
+        <v>0.555497424106441</v>
       </c>
       <c r="G32">
         <v>0.0169491525423729</v>
       </c>
       <c r="H32">
-        <v>0.711864406779661</v>
+        <v>0.72316384180791</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K32">
-        <v>-1.41470140582295</v>
+        <v>-0.170897644580621</v>
       </c>
       <c r="L32">
-        <v>-6.79002354578485</v>
+        <v>-5.11646520003551</v>
       </c>
       <c r="M32">
-        <v>3.56524189400884</v>
+        <v>4.16744049818379</v>
       </c>
       <c r="N32">
-        <v>-0.832177297542914</v>
+        <v>-0.106811027862888</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q32">
         <v>1814385</v>
@@ -2835,19 +2832,19 @@
         <v>5538597</v>
       </c>
       <c r="S32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2864,34 +2861,34 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.998370151318334</v>
+        <v>0.996203498463727</v>
       </c>
       <c r="G33">
-        <v>0.130952380952381</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H33">
-        <v>0.892857142857143</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="I33">
         <v>5</v>
       </c>
       <c r="J33">
-        <v>0.0995886681792781</v>
+        <v>0.097693150851411</v>
       </c>
       <c r="K33">
-        <v>-0.0052562154971131</v>
+        <v>-0.0048601053120118</v>
       </c>
       <c r="L33">
-        <v>-0.0086687315358059</v>
+        <v>-0.0084305614078746</v>
       </c>
       <c r="M33">
-        <v>-0.0020342413130119</v>
+        <v>-0.0015950311372377</v>
       </c>
       <c r="N33">
-        <v>-5.27792528327724</v>
+        <v>-4.97486801239933</v>
       </c>
       <c r="O33" t="s">
         <v>44</v>
@@ -2906,19 +2903,19 @@
         <v>5538597</v>
       </c>
       <c r="S33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2932,43 +2929,43 @@
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.966575433131144</v>
+        <v>0.98407433002978</v>
       </c>
       <c r="G34">
-        <v>0.0769230769230769</v>
+        <v>0.0955056179775281</v>
       </c>
       <c r="H34">
-        <v>0.36094674556213</v>
+        <v>0.353932584269663</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K34">
-        <v>-0.0004577067669172</v>
+        <v>-0.0003544826883642</v>
       </c>
       <c r="L34">
-        <v>-0.0009370613973293</v>
+        <v>-0.000821118490263</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>-3.26933404940924</v>
+        <v>-2.72678991049437</v>
       </c>
       <c r="O34" t="s">
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1814385</v>
@@ -2977,19 +2974,19 @@
         <v>5538597</v>
       </c>
       <c r="S34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3009,37 +3006,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.3534828826638</v>
+        <v>0.815889735587754</v>
       </c>
       <c r="G35">
-        <v>0.029585798816568</v>
+        <v>0.0280898876404494</v>
       </c>
       <c r="H35">
-        <v>0.905325443786982</v>
+        <v>0.904494382022472</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.539</v>
+        <v>0.5385</v>
       </c>
       <c r="K35">
-        <v>0.0034460951723128</v>
+        <v>-0.0039451103770225</v>
       </c>
       <c r="L35">
-        <v>-0.0077829750825664</v>
+        <v>-0.0127754621513731</v>
       </c>
       <c r="M35">
-        <v>0.0143768123122676</v>
+        <v>0.0047977650967245</v>
       </c>
       <c r="N35">
-        <v>0.639349753675852</v>
+        <v>-0.73261102637374</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q35">
         <v>1814385</v>
@@ -3048,19 +3045,19 @@
         <v>5538597</v>
       </c>
       <c r="S35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3080,31 +3077,31 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.340472912033787</v>
+        <v>0.374559566500298</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.6220930232558139</v>
+        <v>0.598837209302326</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.82</v>
+        <v>7.84</v>
       </c>
       <c r="K36">
-        <v>-0.0029318120354128</v>
+        <v>-0.0015968799682035</v>
       </c>
       <c r="L36">
-        <v>-0.0149635693538465</v>
+        <v>-0.0133366039830354</v>
       </c>
       <c r="M36">
-        <v>0.0099387755102038</v>
+        <v>0.009938992681458699</v>
       </c>
       <c r="N36">
-        <v>-0.037491202498886</v>
+        <v>-0.0203683669413711</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
@@ -3119,16 +3116,16 @@
         <v>5538597</v>
       </c>
       <c r="S36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3148,37 +3145,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.709313840530218</v>
+        <v>0.874187926826912</v>
       </c>
       <c r="G37">
         <v>0.0056179775280898</v>
       </c>
       <c r="H37">
-        <v>0.9269662921348319</v>
+        <v>0.921348314606742</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.7885</v>
+        <v>0.7925</v>
       </c>
       <c r="K37">
-        <v>-0.0048261591806519</v>
+        <v>-0.010185802405142</v>
       </c>
       <c r="L37">
-        <v>-0.0186957515999198</v>
+        <v>-0.0224110806225205</v>
       </c>
       <c r="M37">
-        <v>0.0076489753787308</v>
+        <v>0.0027033614599594</v>
       </c>
       <c r="N37">
-        <v>-0.612068380551925</v>
+        <v>-1.28527475143748</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q37">
         <v>1814385</v>
@@ -3187,19 +3184,19 @@
         <v>5538597</v>
       </c>
       <c r="S37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3219,7 +3216,7 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.871337645803748</v>
+        <v>0.964129753064714</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3231,25 +3228,25 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.0775</v>
+        <v>1.073</v>
       </c>
       <c r="K38">
-        <v>-0.009330047010660101</v>
+        <v>-0.0162081866662162</v>
       </c>
       <c r="L38">
-        <v>-0.0292862858717509</v>
+        <v>-0.0329481062399129</v>
       </c>
       <c r="M38">
-        <v>0.0032316412443209</v>
+        <v>-0.0010990879667405</v>
       </c>
       <c r="N38">
-        <v>-0.865897634400009</v>
+        <v>-1.51054861754112</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q38">
         <v>1814385</v>
@@ -3258,19 +3255,19 @@
         <v>5538597</v>
       </c>
       <c r="S38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3290,37 +3287,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.865254610440665</v>
+        <v>0.941786741771294</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.5730337078651681</v>
+        <v>0.556179775280899</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
       <c r="K39">
-        <v>-0.0004995556092425</v>
+        <v>-0.0005001141031492</v>
       </c>
       <c r="L39">
-        <v>-0.0013497183698596</v>
+        <v>-0.001342886962104</v>
       </c>
       <c r="M39">
-        <v>0.0002129573562087</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>-0.979520802436357</v>
+        <v>-1.06407255989201</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q39">
         <v>1814385</v>
@@ -3329,19 +3326,19 @@
         <v>5538597</v>
       </c>
       <c r="S39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3361,7 +3358,7 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.56341261667459</v>
+        <v>0.69423989847515</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3373,25 +3370,25 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>4.155</v>
+        <v>3.91</v>
       </c>
       <c r="K40">
-        <v>-0.0085129367444042</v>
+        <v>-0.0195030512878841</v>
       </c>
       <c r="L40">
-        <v>-0.0690828331211969</v>
+        <v>-0.0741460905285922</v>
       </c>
       <c r="M40">
-        <v>0.06555874069939541</v>
+        <v>0.0433244651620373</v>
       </c>
       <c r="N40">
-        <v>-0.20488415750672</v>
+        <v>-0.498799265674785</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q40">
         <v>1814385</v>
@@ -3400,19 +3397,19 @@
         <v>5538597</v>
       </c>
       <c r="S40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3429,16 +3426,16 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F41">
-        <v>0.818370657505473</v>
+        <v>0.765554347514899</v>
       </c>
       <c r="G41">
-        <v>0.045662100456621</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="H41">
-        <v>0.438356164383562</v>
+        <v>0.441860465116279</v>
       </c>
       <c r="I41">
         <v>9</v>
@@ -3447,22 +3444,22 @@
         <v>0.9</v>
       </c>
       <c r="K41">
-        <v>0.0062329467701602</v>
+        <v>0.0038463565311921</v>
       </c>
       <c r="L41">
-        <v>-0.0036308466876161</v>
+        <v>-0.0041495108181709</v>
       </c>
       <c r="M41">
-        <v>0.0187099652746257</v>
+        <v>0.0154764772354008</v>
       </c>
       <c r="N41">
-        <v>0.692549641128911</v>
+        <v>0.42737294791024</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q41">
         <v>1814385</v>
@@ -3471,19 +3468,19 @@
         <v>5538597</v>
       </c>
       <c r="S41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3491,49 +3488,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.008250961654014901</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.421940928270042</v>
+        <v>0.808080808080808</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.028</v>
+        <v>10.53</v>
       </c>
       <c r="K42">
-        <v>-0.0029363463489703</v>
+        <v>-0.0368861771512728</v>
       </c>
       <c r="L42">
-        <v>-0.0036343283582089</v>
+        <v>-0.06499275640158909</v>
       </c>
       <c r="M42">
-        <v>-0.0022761051165287</v>
+        <v>-0.0132939035486806</v>
       </c>
       <c r="N42">
-        <v>-10.4869512463226</v>
+        <v>-0.350296079309333</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q42">
         <v>1814385</v>
@@ -3542,19 +3539,19 @@
         <v>5538597</v>
       </c>
       <c r="S42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3562,7 +3559,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3574,31 +3571,31 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.997045167191968</v>
+        <v>0.999999999999992</v>
       </c>
       <c r="G43">
-        <v>0.0127118644067797</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0.669491525423729</v>
+        <v>0.378151260504202</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>219</v>
+        <v>0.024</v>
       </c>
       <c r="K43">
-        <v>-6.70994244932279</v>
+        <v>-0.0022799625468164</v>
       </c>
       <c r="L43">
-        <v>-10.8956054964266</v>
+        <v>-0.0029167820902378</v>
       </c>
       <c r="M43">
-        <v>-2.60378845916902</v>
+        <v>-0.0017229085171327</v>
       </c>
       <c r="N43">
-        <v>-3.06390066179123</v>
+        <v>-9.499843945068671</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
@@ -3613,19 +3610,19 @@
         <v>5538597</v>
       </c>
       <c r="S43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3633,7 +3630,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3645,37 +3642,37 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.592085007663629</v>
+        <v>0.997651880271553</v>
       </c>
       <c r="G44">
-        <v>0.116071428571429</v>
+        <v>0.0126582278481013</v>
       </c>
       <c r="H44">
-        <v>0.892857142857143</v>
+        <v>0.713080168776371</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.08801433491316921</v>
+        <v>200</v>
       </c>
       <c r="K44">
-        <v>-0.0001062676747244</v>
+        <v>-6.50376787519861</v>
       </c>
       <c r="L44">
-        <v>-0.0016139453237648</v>
+        <v>-10.6534375003062</v>
       </c>
       <c r="M44">
-        <v>0.0013870188132055</v>
+        <v>-2.60892857142857</v>
       </c>
       <c r="N44">
-        <v>-0.120739053279529</v>
+        <v>-3.25188393759931</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q44">
         <v>1814385</v>
@@ -3684,16 +3681,16 @@
         <v>5538597</v>
       </c>
       <c r="S44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W44" t="s">
         <v>66</v>
@@ -3704,43 +3701,43 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.157172010597271</v>
+        <v>0.6211588925381269</v>
       </c>
       <c r="G45">
-        <v>0.0319634703196347</v>
+        <v>0.124444444444444</v>
       </c>
       <c r="H45">
-        <v>0.817351598173516</v>
+        <v>0.884444444444444</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J45">
-        <v>0.5104</v>
+        <v>0.0897486581020147</v>
       </c>
       <c r="K45">
-        <v>0.0036407556270096</v>
+        <v>-0.0001346771804748</v>
       </c>
       <c r="L45">
-        <v>-0.0021710921668196</v>
+        <v>-0.0017092955314749</v>
       </c>
       <c r="M45">
-        <v>0.0097065365248814</v>
+        <v>0.0013121416646247</v>
       </c>
       <c r="N45">
-        <v>0.713314190244837</v>
+        <v>-0.150060383434063</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
@@ -3755,19 +3752,19 @@
         <v>5538597</v>
       </c>
       <c r="S45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3775,7 +3772,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3787,37 +3784,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.182523650475902</v>
+        <v>0.247995057137651</v>
       </c>
       <c r="G46">
-        <v>0.0042194092827004</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="H46">
-        <v>0.890295358649789</v>
+        <v>0.836363636363636</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>0.723</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="K46">
-        <v>0.0043029452054794</v>
+        <v>0.0024731673265381</v>
       </c>
       <c r="L46">
-        <v>-0.0034903149797173</v>
+        <v>-0.0028329697140634</v>
       </c>
       <c r="M46">
-        <v>0.0116808645094461</v>
+        <v>0.0084334900835107</v>
       </c>
       <c r="N46">
-        <v>0.595151480702552</v>
+        <v>0.490221472059102</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q46">
         <v>1814385</v>
@@ -3826,16 +3823,16 @@
         <v>5538597</v>
       </c>
       <c r="S46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W46" t="s">
         <v>65</v>
@@ -3846,7 +3843,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -3858,37 +3855,37 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.9042853461613261</v>
+        <v>0.615565035736007</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.89873417721519</v>
+        <v>0.585365853658537</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>4.5</v>
+        <v>7.83</v>
       </c>
       <c r="K47">
-        <v>-0.0399908759124088</v>
+        <v>0.0012482911825016</v>
       </c>
       <c r="L47">
-        <v>-0.0854824054691173</v>
+        <v>-0.0079875726385402</v>
       </c>
       <c r="M47">
-        <v>0.009826830084839601</v>
+        <v>0.0134525763416491</v>
       </c>
       <c r="N47">
-        <v>-0.888686131386861</v>
+        <v>0.015942416123904</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q47">
         <v>1814385</v>
@@ -3897,19 +3894,16 @@
         <v>5538597</v>
       </c>
       <c r="S47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V47" t="s">
-        <v>62</v>
-      </c>
-      <c r="W47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3917,10 +3911,10 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -3929,37 +3923,37 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.678047442221144</v>
+        <v>0.301083763874098</v>
       </c>
       <c r="G48">
-        <v>0.0305810397553517</v>
+        <v>0.0042016806722689</v>
       </c>
       <c r="H48">
-        <v>0.46177370030581</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0.723</v>
       </c>
       <c r="K48">
-        <v>0.001247510994263</v>
+        <v>0.0022806909345302</v>
       </c>
       <c r="L48">
-        <v>-0.0046571418036186</v>
+        <v>-0.0053822185856383</v>
       </c>
       <c r="M48">
-        <v>0.008518402052744499</v>
+        <v>0.0092551362674503</v>
       </c>
       <c r="N48">
-        <v>0.124751099426308</v>
+        <v>0.315448262037378</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q48">
         <v>1814385</v>
@@ -3968,16 +3962,16 @@
         <v>5538597</v>
       </c>
       <c r="S48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W48" t="s">
         <v>64</v>
@@ -3988,49 +3982,49 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.868577227456739</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.415730337078652</v>
+        <v>0.6775700934579439</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.051</v>
+        <v>1.06</v>
       </c>
       <c r="K49">
-        <v>-0.0036996749319298</v>
+        <v>-0.0057103878605113</v>
       </c>
       <c r="L49">
-        <v>-0.0041818508765835</v>
+        <v>-0.0198960633242441</v>
       </c>
       <c r="M49">
-        <v>-0.0032547679352155</v>
+        <v>0.0027500677339574</v>
       </c>
       <c r="N49">
-        <v>-7.25426457241147</v>
+        <v>-0.5387158358973</v>
       </c>
       <c r="O49" t="s">
         <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q49">
         <v>1814385</v>
@@ -4039,19 +4033,19 @@
         <v>5538597</v>
       </c>
       <c r="S49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4059,49 +4053,49 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.8194942296655749</v>
+        <v>0.9999976818060859</v>
       </c>
       <c r="G50">
-        <v>0.0816326530612245</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0.871720116618076</v>
+        <v>0.570093457943925</v>
       </c>
       <c r="I50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.0798500607640862</v>
+        <v>0.0565</v>
       </c>
       <c r="K50">
-        <v>-0.00047440009455</v>
+        <v>-0.002324601001965</v>
       </c>
       <c r="L50">
-        <v>-0.001246850195502</v>
+        <v>-0.0036409149694566</v>
       </c>
       <c r="M50">
-        <v>0.0003438928938549</v>
+        <v>-0.0013607067654359</v>
       </c>
       <c r="N50">
-        <v>-0.594113629984103</v>
+        <v>-4.1143380565753</v>
       </c>
       <c r="O50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q50">
         <v>1814385</v>
@@ -4110,19 +4104,19 @@
         <v>5538597</v>
       </c>
       <c r="S50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4130,10 +4124,10 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -4142,37 +4136,37 @@
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.887810704396559</v>
+        <v>0.978245924028005</v>
       </c>
       <c r="G51">
-        <v>0.0207100591715976</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0.642011834319527</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0.5225</v>
+        <v>4.255</v>
       </c>
       <c r="K51">
-        <v>-0.0023777841441432</v>
+        <v>-0.0537865547178433</v>
       </c>
       <c r="L51">
-        <v>-0.0054172557983565</v>
+        <v>-0.102250346340241</v>
       </c>
       <c r="M51">
-        <v>0.0007451574356078</v>
+        <v>-0.0150011072757621</v>
       </c>
       <c r="N51">
-        <v>-0.455078305099188</v>
+        <v>-1.26407884178245</v>
       </c>
       <c r="O51" t="s">
         <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q51">
         <v>1814385</v>
@@ -4181,19 +4175,19 @@
         <v>5538597</v>
       </c>
       <c r="S51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4201,7 +4195,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -4210,40 +4204,40 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F52">
-        <v>0.78229029016534</v>
+        <v>0.548446113640299</v>
       </c>
       <c r="G52">
-        <v>0.0028089887640449</v>
+        <v>0.0311526479750779</v>
       </c>
       <c r="H52">
-        <v>0.820224719101124</v>
+        <v>0.46417445482866</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J52">
-        <v>0.7335</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>-0.0019228096825666</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>-0.0059444439792838</v>
+        <v>-0.0057448736368443</v>
       </c>
       <c r="M52">
-        <v>0.0019424073345811</v>
+        <v>0.0066779918525107</v>
       </c>
       <c r="N52">
-        <v>-0.262141742681206</v>
+        <v>0</v>
       </c>
       <c r="O52" t="s">
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q52">
         <v>1814385</v>
@@ -4252,19 +4246,19 @@
         <v>5538597</v>
       </c>
       <c r="S52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4272,49 +4266,49 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>30</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="s">
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.9173877615967651</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.740845070422535</v>
+        <v>0.401685393258427</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>4.5</v>
+        <v>0.0475</v>
       </c>
       <c r="K53">
-        <v>-0.0244512628055584</v>
+        <v>-0.0034444559501531</v>
       </c>
       <c r="L53">
-        <v>-0.0472541751927368</v>
+        <v>-0.0038817789653419</v>
       </c>
       <c r="M53">
-        <v>0.0039930294707273</v>
+        <v>-0.0030211442771892</v>
       </c>
       <c r="N53">
-        <v>-0.543361395679075</v>
+        <v>-7.25148621084875</v>
       </c>
       <c r="O53" t="s">
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q53">
         <v>1814385</v>
@@ -4323,19 +4317,19 @@
         <v>5538597</v>
       </c>
       <c r="S53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4343,10 +4337,10 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4355,31 +4349,31 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.231216363225238</v>
+        <v>0.396451126018723</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.08746355685131189</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0.865889212827988</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J54">
-        <v>0.379</v>
+        <v>0.0773383912228706</v>
       </c>
       <c r="K54">
-        <v>-0.0205094686013525</v>
+        <v>4.65193703038418E-05</v>
       </c>
       <c r="L54">
-        <v>-0.104739028353831</v>
+        <v>-0.0006712498743945</v>
       </c>
       <c r="M54">
-        <v>0.0294691443608179</v>
+        <v>0.0010240116946818</v>
       </c>
       <c r="N54">
-        <v>-5.4114692879558</v>
+        <v>0.06015042408858</v>
       </c>
       <c r="O54" t="s">
         <v>44</v>
@@ -4394,16 +4388,19 @@
         <v>5538597</v>
       </c>
       <c r="S54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V54" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="W54" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4411,49 +4408,49 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.231216363225238</v>
+        <v>0.992087014371156</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.0207100591715976</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0.668639053254438</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>94.12</v>
+        <v>0.53</v>
       </c>
       <c r="K55">
-        <v>-2.21710169731294</v>
+        <v>-0.004466615007231</v>
       </c>
       <c r="L55">
-        <v>-15.8757687555824</v>
+        <v>-0.0075023536842041</v>
       </c>
       <c r="M55">
-        <v>4.37840114596415</v>
+        <v>-0.0015934015039531</v>
       </c>
       <c r="N55">
-        <v>-2.35561166310343</v>
+        <v>-0.842757548534151</v>
       </c>
       <c r="O55" t="s">
         <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q55">
         <v>1814385</v>
@@ -4462,16 +4459,19 @@
         <v>5538597</v>
       </c>
       <c r="S55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V55" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="W55" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4479,49 +4479,49 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.110335680959923</v>
+        <v>0.841303850791175</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.0028089887640449</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.820224719101124</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>5.784</v>
+        <v>0.723</v>
       </c>
       <c r="K56">
-        <v>-0.403116579213245</v>
+        <v>-0.0025761588090235</v>
       </c>
       <c r="L56">
-        <v>-1.17141990495943</v>
+        <v>-0.0067213131143224</v>
       </c>
       <c r="M56">
-        <v>0.0009713402033459</v>
+        <v>0.0012698823419883</v>
       </c>
       <c r="N56">
-        <v>-6.96951208874905</v>
+        <v>-0.356315187970059</v>
       </c>
       <c r="O56" t="s">
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q56">
         <v>1814385</v>
@@ -4530,16 +4530,19 @@
         <v>5538597</v>
       </c>
       <c r="S56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V56" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="W56" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4547,49 +4550,49 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>40</v>
       </c>
       <c r="F57">
-        <v>0.07620314197837499</v>
+        <v>0.974732868377022</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0.76056338028169</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.3965</v>
+        <v>4.33</v>
       </c>
       <c r="K57">
-        <v>-0.0106778422273782</v>
+        <v>-0.0313295210864903</v>
       </c>
       <c r="L57">
-        <v>-0.0211116041988768</v>
+        <v>-0.0515437393306106</v>
       </c>
       <c r="M57">
-        <v>0.0022987958379055</v>
+        <v>-0.0071744456662963</v>
       </c>
       <c r="N57">
-        <v>-2.69302452140686</v>
+        <v>-0.723545521627953</v>
       </c>
       <c r="O57" t="s">
         <v>44</v>
       </c>
       <c r="P57" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q57">
         <v>1814385</v>
@@ -4598,16 +4601,19 @@
         <v>5538597</v>
       </c>
       <c r="S57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V57" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="W57" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4615,10 +4621,10 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -4627,37 +4633,37 @@
         <v>40</v>
       </c>
       <c r="F58">
-        <v>0.464222020750296</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>94.145</v>
+        <v>0.373</v>
       </c>
       <c r="K58">
-        <v>-0.0097348081023448</v>
+        <v>-0.0247408578170785</v>
       </c>
       <c r="L58">
-        <v>-1.73293848376368</v>
+        <v>-0.11908031971218</v>
       </c>
       <c r="M58">
-        <v>1.11714512348248</v>
+        <v>0.0353272527031244</v>
       </c>
       <c r="N58">
-        <v>-0.0103402284798395</v>
+        <v>-6.63293775256798</v>
       </c>
       <c r="O58" t="s">
         <v>44</v>
       </c>
       <c r="P58" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q58">
         <v>1814385</v>
@@ -4666,16 +4672,16 @@
         <v>5538597</v>
       </c>
       <c r="S58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4683,10 +4689,10 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -4695,7 +4701,7 @@
         <v>40</v>
       </c>
       <c r="F59">
-        <v>0.360257393568128</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4707,25 +4713,25 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>5.842</v>
+        <v>94.12</v>
       </c>
       <c r="K59">
-        <v>-0.0410164733178654</v>
+        <v>1.13203143461332</v>
       </c>
       <c r="L59">
-        <v>-0.196776625902152</v>
+        <v>-5.96625114373036</v>
       </c>
       <c r="M59">
-        <v>0.274042099731225</v>
+        <v>5.69813627312164</v>
       </c>
       <c r="N59">
-        <v>-0.7020964278991</v>
+        <v>1.20275333044339</v>
       </c>
       <c r="O59" t="s">
         <v>44</v>
       </c>
       <c r="P59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q59">
         <v>1814385</v>
@@ -4734,16 +4740,16 @@
         <v>5538597</v>
       </c>
       <c r="S59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4751,10 +4757,10 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -4763,7 +4769,7 @@
         <v>40</v>
       </c>
       <c r="F60">
-        <v>0.413332984835078</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4775,25 +4781,25 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.381</v>
+        <v>5.419</v>
       </c>
       <c r="K60">
-        <v>-0.0003416744621141</v>
+        <v>-0.427605633154901</v>
       </c>
       <c r="L60">
-        <v>-0.0099494422245859</v>
+        <v>-1.29831798406213</v>
       </c>
       <c r="M60">
-        <v>0.0076083666240607</v>
+        <v>0.0009713402033459</v>
       </c>
       <c r="N60">
-        <v>-0.08967833651289391</v>
+        <v>-7.8908587037258</v>
       </c>
       <c r="O60" t="s">
         <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q60">
         <v>1814385</v>
@@ -4802,16 +4808,16 @@
         <v>5538597</v>
       </c>
       <c r="S60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4819,10 +4825,10 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -4831,37 +4837,37 @@
         <v>40</v>
       </c>
       <c r="F61">
-        <v>0.061808351879491</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>98</v>
+        <v>0.376</v>
       </c>
       <c r="K61">
-        <v>-0.72676023890785</v>
+        <v>-0.0121321805392731</v>
       </c>
       <c r="L61">
-        <v>-1.40593917043446</v>
+        <v>-0.0211116041988768</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.0024770340203695</v>
       </c>
       <c r="N61">
-        <v>-0.741592080518214</v>
+        <v>-3.22664376044499</v>
       </c>
       <c r="O61" t="s">
         <v>44</v>
       </c>
       <c r="P61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q61">
         <v>1814385</v>
@@ -4870,16 +4876,16 @@
         <v>5538597</v>
       </c>
       <c r="S61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4887,10 +4893,10 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -4899,7 +4905,7 @@
         <v>40</v>
       </c>
       <c r="F62">
-        <v>0.809462759195353</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4911,25 +4917,25 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>5.1795</v>
+        <v>94.23</v>
       </c>
       <c r="K62">
-        <v>0.0765482243744956</v>
+        <v>-0.262689364957918</v>
       </c>
       <c r="L62">
-        <v>-0.0705936450276619</v>
+        <v>-1.83010956830768</v>
       </c>
       <c r="M62">
-        <v>0.219335322490793</v>
+        <v>0.8703528483694291</v>
       </c>
       <c r="N62">
-        <v>1.47790760448876</v>
+        <v>-0.278774663013815</v>
       </c>
       <c r="O62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q62">
         <v>1814385</v>
@@ -4938,16 +4944,16 @@
         <v>5538597</v>
       </c>
       <c r="S62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4955,67 +4961,339 @@
         <v>23</v>
       </c>
       <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>5.6015</v>
+      </c>
+      <c r="K63">
+        <v>-0.0672093534812549</v>
+      </c>
+      <c r="L63">
+        <v>-0.361480736708886</v>
+      </c>
+      <c r="M63">
+        <v>0.274042099731225</v>
+      </c>
+      <c r="N63">
+        <v>-1.19984563922619</v>
+      </c>
+      <c r="O63" t="s">
+        <v>44</v>
+      </c>
+      <c r="P63" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q63">
+        <v>1814385</v>
+      </c>
+      <c r="R63">
+        <v>5538597</v>
+      </c>
+      <c r="S63" t="s">
+        <v>58</v>
+      </c>
+      <c r="T63" t="s">
+        <v>59</v>
+      </c>
+      <c r="U63" t="s">
+        <v>60</v>
+      </c>
+      <c r="V63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>0.244211158311297</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.379</v>
+      </c>
+      <c r="K64">
+        <v>-0.0013063854407742</v>
+      </c>
+      <c r="L64">
+        <v>-0.0103236302068107</v>
+      </c>
+      <c r="M64">
+        <v>0.0052503569719578</v>
+      </c>
+      <c r="N64">
+        <v>-0.344692728436477</v>
+      </c>
+      <c r="O64" t="s">
+        <v>44</v>
+      </c>
+      <c r="P64" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q64">
+        <v>1814385</v>
+      </c>
+      <c r="R64">
+        <v>5538597</v>
+      </c>
+      <c r="S64" t="s">
+        <v>58</v>
+      </c>
+      <c r="T64" t="s">
+        <v>59</v>
+      </c>
+      <c r="U64" t="s">
+        <v>60</v>
+      </c>
+      <c r="V64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
         <v>38</v>
       </c>
-      <c r="C63">
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>0.056201783747841</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>96</v>
+      </c>
+      <c r="K65">
+        <v>-0.759092483546934</v>
+      </c>
+      <c r="L65">
+        <v>-1.40656028337226</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>-0.790721337028057</v>
+      </c>
+      <c r="O65" t="s">
+        <v>44</v>
+      </c>
+      <c r="P65" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q65">
+        <v>1814385</v>
+      </c>
+      <c r="R65">
+        <v>5538597</v>
+      </c>
+      <c r="S65" t="s">
+        <v>58</v>
+      </c>
+      <c r="T65" t="s">
+        <v>59</v>
+      </c>
+      <c r="U65" t="s">
+        <v>60</v>
+      </c>
+      <c r="V65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66">
+        <v>0.616737350238214</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4.94</v>
+      </c>
+      <c r="K66">
+        <v>0.0333764849223272</v>
+      </c>
+      <c r="L66">
+        <v>-0.0916669377474337</v>
+      </c>
+      <c r="M66">
+        <v>0.182049799856057</v>
+      </c>
+      <c r="N66">
+        <v>0.675637346605814</v>
+      </c>
+      <c r="O66" t="s">
+        <v>44</v>
+      </c>
+      <c r="P66" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q66">
+        <v>1814385</v>
+      </c>
+      <c r="R66">
+        <v>5538597</v>
+      </c>
+      <c r="S66" t="s">
+        <v>58</v>
+      </c>
+      <c r="T66" t="s">
+        <v>59</v>
+      </c>
+      <c r="U66" t="s">
+        <v>60</v>
+      </c>
+      <c r="V66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67">
         <v>20</v>
       </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63">
-        <v>0.731915255819551</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0.75</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>95.08499999999999</v>
-      </c>
-      <c r="K63">
-        <v>0.433902523433991</v>
-      </c>
-      <c r="L63">
-        <v>-0.486862722121589</v>
-      </c>
-      <c r="M63">
-        <v>1.13930572544816</v>
-      </c>
-      <c r="N63">
-        <v>0.456331202012926</v>
-      </c>
-      <c r="O63" t="s">
-        <v>44</v>
-      </c>
-      <c r="P63" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q63">
-        <v>1814385</v>
-      </c>
-      <c r="R63">
-        <v>5538597</v>
-      </c>
-      <c r="S63" t="s">
-        <v>59</v>
-      </c>
-      <c r="T63" t="s">
-        <v>60</v>
-      </c>
-      <c r="U63" t="s">
-        <v>61</v>
-      </c>
-      <c r="V63" t="s">
-        <v>62</v>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <v>0.791839398326205</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0.8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>94.23</v>
+      </c>
+      <c r="K67">
+        <v>0.529157256090349</v>
+      </c>
+      <c r="L67">
+        <v>-0.433838830745288</v>
+      </c>
+      <c r="M67">
+        <v>1.21483230592356</v>
+      </c>
+      <c r="N67">
+        <v>0.5615592232732129</v>
+      </c>
+      <c r="O67" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q67">
+        <v>1814385</v>
+      </c>
+      <c r="R67">
+        <v>5538597</v>
+      </c>
+      <c r="S67" t="s">
+        <v>58</v>
+      </c>
+      <c r="T67" t="s">
+        <v>59</v>
+      </c>
+      <c r="U67" t="s">
+        <v>60</v>
+      </c>
+      <c r="V67" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
